--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/2_Adıyaman_2024.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/2_Adıyaman_2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E824E75D-CCCB-4C5E-8D26-50846634AE99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{944F4929-48D8-44DE-9A56-187241FFD3C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="698" xr2:uid="{88A88D3B-DD98-4656-B5DC-F41C68AB96ED}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="698" xr2:uid="{B81E7F20-7BFB-4823-A85F-97C7B3AF2747}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="135" r:id="rId1"/>
@@ -905,14 +905,14 @@
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{FDC92DD6-CC03-4E0F-93D5-1C2A539EB60C}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{36422D22-6F57-4D0D-84E9-622426729621}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{3D29A21B-D331-4EF6-8765-8CE532627DC6}"/>
-    <cellStyle name="Normal 4" xfId="4" xr:uid="{E0490433-E8D3-49C9-8093-480BC35DBE42}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{EB6B3E9F-4E3D-4630-8FAC-BBD82EDA4DD8}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{95198E11-DB18-4BBE-8B45-0C212D9296F1}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{68F22B82-0B47-4EBC-A1FC-D6A882CE485F}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{41B1EC21-F716-4056-B480-CE94EB0CFA49}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{E2C1F236-2ED7-4AE1-BE93-56BC3DBE9C10}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{0FF6F5EB-8DD0-49DE-BF44-98425705F5D7}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{4494B10C-8179-4339-A8EE-D5A79A69592B}"/>
+    <cellStyle name="Normal 4" xfId="4" xr:uid="{49F7C015-AC6D-4FBB-B714-2A82BA01E771}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{F525E0DA-0897-4AEB-86F9-D90ABF9EB94D}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{4BC11FA5-0FFF-46AF-A5E9-8C9200DEC369}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{41190A4E-6175-46FC-AE6C-45C212416AAE}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{25D1D502-6915-447C-9F4C-9C44EBE9FD8C}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1282,7 +1282,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13511791-9610-43FF-92E1-EA9E0069198F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAA8160D-8A41-44A9-B3F0-0E1D0AFBFB43}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2550,7 +2550,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C48F2F8-78DB-4E36-A8D5-D2FF869A7695}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3421AE4A-0FDE-4555-AC02-5E06DA3042B5}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -3811,7 +3811,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ACD9E41-15DA-4555-B5E8-46DDFA254A1C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{289243C4-998C-4170-B187-E3B27D0D79AD}">
   <sheetPr codeName="Sayfa8"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -5058,7 +5058,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC1E6F2F-A2EE-4ACA-983A-07D031548061}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D4BF1B7-96E7-481F-A6F2-594A9A4E6DCE}">
   <sheetPr codeName="Sayfa9"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -6297,7 +6297,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70E5954-9CAB-4D6F-A4ED-695452C8B1AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B18A143A-272F-426D-8F09-171A2DFEF7DB}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7563,7 +7563,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37DD3764-2A93-4B5D-B647-54C3C41B320B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6952A12-25A4-44EB-9664-18E24F78907F}">
   <sheetPr codeName="Sayfa10"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -8828,7 +8828,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74F149EE-6672-44ED-AA9F-53413B3A0F08}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90F98EFD-546E-4045-8824-025CEE08BF2B}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -10091,7 +10091,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8A950EC-2E02-4A69-91FA-89848947736D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D5CCCE4-2655-4D8B-AB63-F98B0099D823}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -11356,7 +11356,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25C2A88A-D8B9-461F-8E0D-99916D2E22B1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BEE5B75-32DE-4D39-B8BF-29EA0AB40741}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -12619,7 +12619,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0211D725-9FF9-42F6-A183-A632AB87F8C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8DAD0BE-FC1F-413C-BCB3-141889E87E4B}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -13880,7 +13880,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90F64D6D-3A08-4C53-9C71-C7E5F7E1B78F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{443F111A-663D-4D9D-AF74-B86477C302EA}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -15139,7 +15139,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E952B29B-4C76-41CA-AA65-DC4C6589CE93}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FD295EA-4FBA-40FF-8DCA-6CCF6D1E1BC9}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
